--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thijs/Development/Sandbox/learning_pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{130F8229-6C38-2545-B2EB-F04E3820E1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A562850-EC69-1849-9D05-4746DFE1FEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{7F13138D-A24A-DA40-BCA1-5CF12F9F266F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{7F13138D-A24A-DA40-BCA1-5CF12F9F266F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Another Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Kolom 1</t>
   </si>
@@ -57,6 +58,27 @@
   </si>
   <si>
     <t>Rij 3</t>
+  </si>
+  <si>
+    <t>Kolom 44</t>
+  </si>
+  <si>
+    <t>Kolom 45</t>
+  </si>
+  <si>
+    <t>Kolom 46</t>
+  </si>
+  <si>
+    <t>Kolom 47</t>
+  </si>
+  <si>
+    <t>Rij 101</t>
+  </si>
+  <si>
+    <t>Rij 102</t>
+  </si>
+  <si>
+    <t>Rij 103</t>
   </si>
 </sst>
 </file>
@@ -96,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +134,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9719FB0C-80D8-E548-9B4D-B49EB4ED6B59}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,4 +527,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5223B5-4A25-3C44-9AC7-0E4E21F613CA}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>